--- a/Projects 2023/Trifit T1 Karachi/Variation orders/Summary of VOs.xlsx
+++ b/Projects 2023/Trifit T1 Karachi/Variation orders/Summary of VOs.xlsx
@@ -3,16 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE35ED5-5A5D-465E-BE2B-205255073F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525C5F8-2ED2-40D0-A06F-85CABEAE3401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$30</definedName>
   </definedNames>
@@ -413,28 +410,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet 1 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="41">
-          <cell r="I41">
-            <v>1265778.8</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,7 +702,7 @@
   <dimension ref="A7:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -741,7 +716,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45269</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -889,10 +864,7 @@
       <c r="B25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="25">
-        <f>'[1]Sheet 1 (2)'!$I$41</f>
-        <v>1265778.8</v>
-      </c>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
@@ -906,7 +878,7 @@
       </c>
       <c r="C27" s="22">
         <f>SUM(C16:C26)</f>
-        <v>8505261.8000000007</v>
+        <v>7239483</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
